--- a/Empirical Application/Estimates/emp_app_lasso_c3_L5_hstar.xlsx
+++ b/Empirical Application/Estimates/emp_app_lasso_c3_L5_hstar.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>42.04702480415321</v>
+        <v>40.77550147312989</v>
       </c>
       <c r="D2">
-        <v>1.560529960529147</v>
+        <v>2.042373732040969</v>
       </c>
       <c r="E2">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F2">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="H2">
-        <v>0.007363379184873882</v>
+        <v>0.01891158228085851</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>42.85193854422336</v>
+        <v>42.23667985752042</v>
       </c>
       <c r="D3">
-        <v>1.526909955833509</v>
+        <v>1.843715614342936</v>
       </c>
       <c r="E3">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F3">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="H3">
-        <v>0.007204742792729715</v>
+        <v>0.01707208577751656</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.64361353784796</v>
+        <v>43.7274990873795</v>
       </c>
       <c r="D4">
-        <v>1.492707088415968</v>
+        <v>1.702687871700033</v>
       </c>
       <c r="E4">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F4">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="H4">
-        <v>0.007043356155897748</v>
+        <v>0.01576622401625615</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.57352136790219</v>
+        <v>45.28749977146488</v>
       </c>
       <c r="D5">
-        <v>1.451195775044105</v>
+        <v>1.66360516312435</v>
       </c>
       <c r="E5">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F5">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="H5">
-        <v>0.006847484529879424</v>
+        <v>0.01540433341445663</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.44500343841796</v>
+        <v>46.9100678196904</v>
       </c>
       <c r="D6">
-        <v>1.404366979618051</v>
+        <v>1.767452905041599</v>
       </c>
       <c r="E6">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F6">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G6">
-        <v>0.0212373664641547</v>
+        <v>0.03834103966600315</v>
       </c>
       <c r="H6">
-        <v>0.00662652230152464</v>
+        <v>0.01636592290473412</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>46.2953357244773</v>
+        <v>48.32008135791261</v>
       </c>
       <c r="D7">
-        <v>1.356230234950151</v>
+        <v>2.006228827691415</v>
       </c>
       <c r="E7">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F7">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G7">
-        <v>0.02152123237658712</v>
+        <v>0.0380212593774512</v>
       </c>
       <c r="H7">
-        <v>0.006399388499111121</v>
+        <v>0.01857689459764136</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>47.0302433199727</v>
+        <v>49.03642199719974</v>
       </c>
       <c r="D8">
-        <v>1.311970871940688</v>
+        <v>2.031117485198769</v>
       </c>
       <c r="E8">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F8">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G8">
-        <v>0.0211664361382796</v>
+        <v>0.0331807681863765</v>
       </c>
       <c r="H8">
-        <v>0.00619055016818337</v>
+        <v>0.01880735383579464</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>47.4354328890138</v>
+        <v>49.29290347438961</v>
       </c>
       <c r="D9">
-        <v>1.275302032006452</v>
+        <v>1.858483041277256</v>
       </c>
       <c r="E9">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F9">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G9">
-        <v>0.0178869470069476</v>
+        <v>0.02503377314327957</v>
       </c>
       <c r="H9">
-        <v>0.006017527810692925</v>
+        <v>0.01720882637751726</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>47.70332011106478</v>
+        <v>49.08706294657514</v>
       </c>
       <c r="D10">
-        <v>1.246640485526922</v>
+        <v>1.718544491660941</v>
       </c>
       <c r="E10">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F10">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G10">
-        <v>0.01411447920404258</v>
+        <v>0.01360621954302963</v>
       </c>
       <c r="H10">
-        <v>0.005882287962633804</v>
+        <v>0.01591305011785674</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>47.72415979190162</v>
+        <v>48.96176885024215</v>
       </c>
       <c r="D11">
-        <v>1.224577961130756</v>
+        <v>1.67268799555362</v>
       </c>
       <c r="E11">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F11">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G11">
-        <v>0.008930150421402017</v>
+        <v>0.004010546827059614</v>
       </c>
       <c r="H11">
-        <v>0.005778185678785684</v>
+        <v>0.01548843689176572</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.59328358265482</v>
+        <v>48.07342907100386</v>
       </c>
       <c r="D12">
-        <v>1.207757528018982</v>
+        <v>1.645688081638512</v>
       </c>
       <c r="E12">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F12">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G12">
-        <v>0.003519001641763264</v>
+        <v>-0.006018705788724254</v>
       </c>
       <c r="H12">
-        <v>0.005698818265029782</v>
+        <v>0.01523842824468456</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.44658470174756</v>
+        <v>47.52436160019654</v>
       </c>
       <c r="D13">
-        <v>1.195773612799073</v>
+        <v>1.627190141367542</v>
       </c>
       <c r="E13">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F13">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G13">
-        <v>6.969882958598461E-05</v>
+        <v>-0.01105338671370668</v>
       </c>
       <c r="H13">
-        <v>0.005642272018488222</v>
+        <v>0.01506714454965228</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.33610103230368</v>
+        <v>47.25876703680339</v>
       </c>
       <c r="D14">
-        <v>1.188667452298132</v>
+        <v>1.613873731289699</v>
       </c>
       <c r="E14">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F14">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G14">
-        <v>-0.002295119242256849</v>
+        <v>-0.01142684943607342</v>
       </c>
       <c r="H14">
-        <v>0.005608741515620299</v>
+        <v>0.0149438397984591</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.23169321317064</v>
+        <v>46.5244183308193</v>
       </c>
       <c r="D15">
-        <v>1.186398792409415</v>
+        <v>1.629751859536354</v>
       </c>
       <c r="E15">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F15">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G15">
-        <v>-0.003077916117068646</v>
+        <v>-0.01523344074639281</v>
       </c>
       <c r="H15">
-        <v>0.005598036816944425</v>
+        <v>0.01509086505837692</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>47.12830802882404</v>
+        <v>45.84326858042049</v>
       </c>
       <c r="D16">
-        <v>1.190143501253171</v>
+        <v>1.671709022007222</v>
       </c>
       <c r="E16">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F16">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G16">
-        <v>-0.002906097211442393</v>
+        <v>-0.01393850306614603</v>
       </c>
       <c r="H16">
-        <v>0.00561570627017567</v>
+        <v>0.01547937197946145</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>47.07588815672939</v>
+        <v>45.75173796716159</v>
       </c>
       <c r="D17">
-        <v>1.199887731326229</v>
+        <v>1.724400153704937</v>
       </c>
       <c r="E17">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F17">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G17">
-        <v>-0.002316853406363562</v>
+        <v>-0.01107889770646846</v>
       </c>
       <c r="H17">
-        <v>0.005661684535705573</v>
+        <v>0.01596727125907915</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>47.08656264261693</v>
+        <v>46.14092118656887</v>
       </c>
       <c r="D18">
-        <v>1.212708008666701</v>
+        <v>1.776629493518559</v>
       </c>
       <c r="E18">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F18">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G18">
-        <v>-0.001559614935542175</v>
+        <v>-0.006986536563965773</v>
       </c>
       <c r="H18">
-        <v>0.005722177166863473</v>
+        <v>0.01645089452639035</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>47.14451984598399</v>
+        <v>46.51888206319379</v>
       </c>
       <c r="D19">
-        <v>1.229162768596309</v>
+        <v>1.818690295215376</v>
       </c>
       <c r="E19">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F19">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G19">
-        <v>-0.0005448335449165231</v>
+        <v>-3.460167265942893E-05</v>
       </c>
       <c r="H19">
-        <v>0.005799819147358796</v>
+        <v>0.01684036110618882</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.24500510135579</v>
+        <v>47.35067949539376</v>
       </c>
       <c r="D20">
-        <v>1.247480980644133</v>
+        <v>1.834013743303989</v>
       </c>
       <c r="E20">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F20">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G20">
-        <v>0.0007293567033234361</v>
+        <v>0.009421318218582941</v>
       </c>
       <c r="H20">
-        <v>0.005886253848844</v>
+        <v>0.01698225024469859</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.40927770291304</v>
+        <v>48.06575819907392</v>
       </c>
       <c r="D21">
-        <v>1.264211672359568</v>
+        <v>1.847781192582056</v>
       </c>
       <c r="E21">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F21">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G21">
-        <v>0.002083684663647789</v>
+        <v>0.01446262644945207</v>
       </c>
       <c r="H21">
-        <v>0.005965197816753596</v>
+        <v>0.01710973144254944</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.74997871046926</v>
+        <v>48.78261601964</v>
       </c>
       <c r="D22">
-        <v>1.277968196703722</v>
+        <v>1.88866770737973</v>
       </c>
       <c r="E22">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F22">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G22">
-        <v>0.004146350424077028</v>
+        <v>0.01651059270669459</v>
       </c>
       <c r="H22">
-        <v>0.006030108140537195</v>
+        <v>0.01748832458475611</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>48.00100200704659</v>
+        <v>49.49749524672544</v>
       </c>
       <c r="D23">
-        <v>1.28819507369712</v>
+        <v>1.937377839571411</v>
       </c>
       <c r="E23">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F23">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G23">
-        <v>0.005353013506641214</v>
+        <v>0.01861633239707281</v>
       </c>
       <c r="H23">
-        <v>0.006078363781302924</v>
+        <v>0.01793936136534275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>48.04743020036609</v>
+        <v>49.44919364664175</v>
       </c>
       <c r="D24">
-        <v>1.296753858172278</v>
+        <v>1.986070216292194</v>
       </c>
       <c r="E24">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F24">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G24">
-        <v>0.005015156868814374</v>
+        <v>0.01311571344529994</v>
       </c>
       <c r="H24">
-        <v>0.006118748507675516</v>
+        <v>0.01839023373721047</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.12377346607684</v>
+        <v>49.31318281167515</v>
       </c>
       <c r="D25">
-        <v>1.305884195731475</v>
+        <v>2.006224155566726</v>
       </c>
       <c r="E25">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F25">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G25">
-        <v>0.004465598519773772</v>
+        <v>0.007796403828757681</v>
       </c>
       <c r="H25">
-        <v>0.006161830114075092</v>
+        <v>0.01857685133559334</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.20202023064366</v>
+        <v>49.50675693809996</v>
       </c>
       <c r="D26">
-        <v>1.315862067869619</v>
+        <v>1.986682783866895</v>
       </c>
       <c r="E26">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F26">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G26">
-        <v>0.002825259501090027</v>
+        <v>0.004525880740374744</v>
       </c>
       <c r="H26">
-        <v>0.006208910822468816</v>
+        <v>0.01839590587346536</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>48.19528800174297</v>
+        <v>49.02484485584936</v>
       </c>
       <c r="D27">
-        <v>1.325928717186122</v>
+        <v>1.956999083688042</v>
       </c>
       <c r="E27">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F27">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G27">
-        <v>0.001214287466852415</v>
+        <v>-0.002954064942975521</v>
       </c>
       <c r="H27">
-        <v>0.006256410427034838</v>
+        <v>0.01812104641482371</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.95323957085447</v>
+        <v>48.0819970200718</v>
       </c>
       <c r="D28">
-        <v>1.335636986433072</v>
+        <v>1.988770150394352</v>
       </c>
       <c r="E28">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F28">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G28">
-        <v>-0.0005886914344475968</v>
+        <v>-0.008544978916062184</v>
       </c>
       <c r="H28">
-        <v>0.006302219010978912</v>
+        <v>0.01841523407144158</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.65213872253776</v>
+        <v>48.25694328170722</v>
       </c>
       <c r="D29">
-        <v>1.347146265030457</v>
+        <v>2.071079639876631</v>
       </c>
       <c r="E29">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F29">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G29">
-        <v>-0.002947717147119278</v>
+        <v>-0.006601497062299533</v>
       </c>
       <c r="H29">
-        <v>0.006356525678970191</v>
+        <v>0.0191773877646758</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.42987536098671</v>
+        <v>48.02101426432299</v>
       </c>
       <c r="D30">
-        <v>1.358174664818928</v>
+        <v>2.133688103443377</v>
       </c>
       <c r="E30">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F30">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G30">
-        <v>-0.004825905435355926</v>
+        <v>-0.009285891711106053</v>
       </c>
       <c r="H30">
-        <v>0.006408563314580441</v>
+        <v>0.01975711766016237</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.9635084006646</v>
+        <v>47.45383518201697</v>
       </c>
       <c r="D31">
-        <v>1.367705095909151</v>
+        <v>2.165261944925497</v>
       </c>
       <c r="E31">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F31">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G31">
-        <v>-0.007698622506739828</v>
+        <v>-0.009818810461452453</v>
       </c>
       <c r="H31">
-        <v>0.006453532767066203</v>
+        <v>0.02004947908831059</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.30292827858337</v>
+        <v>46.93625451487123</v>
       </c>
       <c r="D32">
-        <v>1.376501220150759</v>
+        <v>2.153484300235108</v>
       </c>
       <c r="E32">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F32">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G32">
-        <v>-0.01031444557669436</v>
+        <v>-0.007160890657503582</v>
       </c>
       <c r="H32">
-        <v>0.006495037383950494</v>
+        <v>0.019940422703016</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.80728856635292</v>
+        <v>46.4611527333592</v>
       </c>
       <c r="D33">
-        <v>1.386736000350624</v>
+        <v>2.122015197492439</v>
       </c>
       <c r="E33">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F33">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G33">
-        <v>-0.01153031347615521</v>
+        <v>-0.01122369092717515</v>
       </c>
       <c r="H33">
-        <v>0.006543330316089965</v>
+        <v>0.01964903111464689</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.31197910620777</v>
+        <v>46.25395253771273</v>
       </c>
       <c r="D34">
-        <v>1.397392541625257</v>
+        <v>2.123488530936642</v>
       </c>
       <c r="E34">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F34">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G34">
-        <v>-0.01323685159236838</v>
+        <v>-0.01104413579131416</v>
       </c>
       <c r="H34">
-        <v>0.006593613332878554</v>
+        <v>0.01966267360633196</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>44.8923143358529</v>
+        <v>46.07012252482221</v>
       </c>
       <c r="D35">
-        <v>1.408087856877814</v>
+        <v>2.144659002586955</v>
       </c>
       <c r="E35">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F35">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G35">
-        <v>-0.01294496290507312</v>
+        <v>-0.008648204107467227</v>
       </c>
       <c r="H35">
-        <v>0.006644079305143282</v>
+        <v>0.01985870389709534</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>44.54211923678959</v>
+        <v>44.97003977682272</v>
       </c>
       <c r="D36">
-        <v>1.419535963515826</v>
+        <v>2.148468010651666</v>
       </c>
       <c r="E36">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F36">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G36">
-        <v>-0.01100505651121115</v>
+        <v>-0.01228884211280317</v>
       </c>
       <c r="H36">
-        <v>0.006698097332516477</v>
+        <v>0.0198939738226208</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.23970858821156</v>
+        <v>43.32345632209754</v>
       </c>
       <c r="D37">
-        <v>1.432862514222461</v>
+        <v>2.086654380047095</v>
       </c>
       <c r="E37">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F37">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G37">
-        <v>-0.009797374863383501</v>
+        <v>-0.01961060257038536</v>
       </c>
       <c r="H37">
-        <v>0.006760978820575911</v>
+        <v>0.01932160376961941</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>43.9482290282402</v>
+        <v>42.88974763941589</v>
       </c>
       <c r="D38">
-        <v>1.449757451090377</v>
+        <v>2.036115829815794</v>
       </c>
       <c r="E38">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F38">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G38">
-        <v>-0.008523437987297332</v>
+        <v>-0.02102628061435525</v>
       </c>
       <c r="H38">
-        <v>0.006840697781191565</v>
+        <v>0.01885363655281651</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>43.79494941227954</v>
+        <v>42.78790023057211</v>
       </c>
       <c r="D39">
-        <v>1.471289027553208</v>
+        <v>2.06213517635575</v>
       </c>
       <c r="E39">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F39">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G39">
-        <v>-0.006858530772333493</v>
+        <v>-0.02051388933906311</v>
       </c>
       <c r="H39">
-        <v>0.006942294780899389</v>
+        <v>0.01909456552936226</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>43.64723458991875</v>
+        <v>43.12666239764204</v>
       </c>
       <c r="D40">
-        <v>1.498924129571747</v>
+        <v>2.149653973553776</v>
       </c>
       <c r="E40">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F40">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G40">
-        <v>-0.005593029042942721</v>
+        <v>-0.01152110861987925</v>
       </c>
       <c r="H40">
-        <v>0.007072691338557389</v>
+        <v>0.01990495537543527</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.33438807369078</v>
+        <v>43.39406117701525</v>
       </c>
       <c r="D41">
-        <v>1.529136613837079</v>
+        <v>2.304265917537684</v>
       </c>
       <c r="E41">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F41">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G41">
-        <v>-0.005658253215754883</v>
+        <v>0.0004412803432356949</v>
       </c>
       <c r="H41">
-        <v>0.007215249305010813</v>
+        <v>0.02133660153029118</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.21722015074894</v>
+        <v>44.03853996233906</v>
       </c>
       <c r="D42">
-        <v>1.55799803387816</v>
+        <v>2.431429512005737</v>
       </c>
       <c r="E42">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F42">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G42">
-        <v>-0.004568805484320348</v>
+        <v>0.00717995201826982</v>
       </c>
       <c r="H42">
-        <v>0.007351432258848069</v>
+        <v>0.02251408669972151</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>43.15856437669922</v>
+        <v>44.47769970835006</v>
       </c>
       <c r="D43">
-        <v>1.582174864644598</v>
+        <v>2.456326581481638</v>
       </c>
       <c r="E43">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F43">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G43">
-        <v>-0.003977406472377032</v>
+        <v>0.01056124673611216</v>
       </c>
       <c r="H43">
-        <v>0.007465510922458887</v>
+        <v>0.02274462382941482</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>43.16057417708252</v>
+        <v>44.27112106714792</v>
       </c>
       <c r="D44">
-        <v>1.599086711709015</v>
+        <v>2.41022065613816</v>
       </c>
       <c r="E44">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F44">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G44">
-        <v>-0.003041627580226436</v>
+        <v>0.007152866684411707</v>
       </c>
       <c r="H44">
-        <v>0.007545309674037918</v>
+        <v>0.02231770098611279</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>43.22581889327309</v>
+        <v>43.61916049644108</v>
       </c>
       <c r="D45">
-        <v>1.607636861230205</v>
+        <v>2.393533837146387</v>
       </c>
       <c r="E45">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F45">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G45">
-        <v>-0.0006785573776105558</v>
+        <v>0.001406870746411437</v>
       </c>
       <c r="H45">
-        <v>0.007585653656277478</v>
+        <v>0.02216318756605752</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.35766437124126</v>
+        <v>43.08260174310746</v>
       </c>
       <c r="D46">
-        <v>1.608884669801991</v>
+        <v>2.424128845863081</v>
       </c>
       <c r="E46">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F46">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G46">
-        <v>0.0008777763780769999</v>
+        <v>-0.005974613870197487</v>
       </c>
       <c r="H46">
-        <v>0.007591541455869022</v>
+        <v>0.02244648538547823</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>43.5167144815989</v>
+        <v>42.89250514297452</v>
       </c>
       <c r="D47">
-        <v>1.605494727564532</v>
+        <v>2.389716709821992</v>
       </c>
       <c r="E47">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F47">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G47">
-        <v>0.002238438155623035</v>
+        <v>-0.009907466033597111</v>
       </c>
       <c r="H47">
-        <v>0.00757554597309036</v>
+        <v>0.02212784245936165</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.46372646039171</v>
+        <v>42.77234200552097</v>
       </c>
       <c r="D48">
-        <v>1.601629186793347</v>
+        <v>2.295234444790434</v>
       </c>
       <c r="E48">
-        <v>279.0055213225548</v>
+        <v>115.1973279549515</v>
       </c>
       <c r="F48">
-        <v>335.0926869515336</v>
+        <v>170.7565430176867</v>
       </c>
       <c r="G48">
-        <v>0.001894701770682428</v>
+        <v>-0.009367369135168424</v>
       </c>
       <c r="H48">
-        <v>0.007557306372971966</v>
+        <v>0.02125297362355823</v>
       </c>
     </row>
   </sheetData>
